--- a/types-of-fields.xlsx
+++ b/types-of-fields.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{76B68C96-9CA9-47AC-9EF6-81238DCED436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1455434-3B0F-45B6-851B-B21B3A766DC2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EF991E-9EC2-4508-9275-3B15E923EE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3324" windowWidth="30720" windowHeight="15156" xr2:uid="{8D21BA9B-91B5-434C-8337-1494DDAD363A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" firstSheet="1" activeTab="2" xr2:uid="{8D21BA9B-91B5-434C-8337-1494DDAD363A}"/>
   </bookViews>
   <sheets>
     <sheet name="列の種類" sheetId="1" r:id="rId1"/>
     <sheet name="システムにより使用される列の種類" sheetId="2" r:id="rId2"/>
+    <sheet name="データ型形式の変換" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="224">
   <si>
     <t>Power Apps データ型</t>
   </si>
@@ -491,6 +492,283 @@
   <si>
     <t>A lookup column that you can use to specify a customer, which can be an account or contact.
 Note: This attribute can be added using solution explorer designer.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型形式の変換</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの種類</t>
+  </si>
+  <si>
+    <t>形式名</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>アプリ開発者は利用できますか</t>
+  </si>
+  <si>
+    <t>メモ</t>
+  </si>
+  <si>
+    <t>テキスト文字を含む基本的なテキスト列。</t>
+  </si>
+  <si>
+    <t>有効</t>
+  </si>
+  <si>
+    <t>ティスト列の既定形式値。</t>
+  </si>
+  <si>
+    <t>テキスト文字を含み、改行も許可するテキスト列。</t>
+  </si>
+  <si>
+    <t>メール</t>
+  </si>
+  <si>
+    <t>このテキストは、ユーザーの電子メール アプリケーションを開くためのリンクを提供します。</t>
+  </si>
+  <si>
+    <t>テキストは、指定されたテキストをページを開くハイパーリンクを含めることができます。 有効なプロトコルで開始されていないすべてのテキストには、先頭に "https://" が追加されます。</t>
+  </si>
+  <si>
+    <t>ほとんどの言語では、テキストは MSN マネー Webサイトを開くリンクとして機能し、株式銘柄コードで表された株価に関する詳細を表示します。</t>
+  </si>
+  <si>
+    <t>列をクリックすると、通話を開始できるようになります。</t>
+  </si>
+  <si>
+    <t>はい</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>JSON 形式を使用してテキストを保存します</t>
+  </si>
+  <si>
+    <t>はい (API のみ)</t>
+  </si>
+  <si>
+    <t>Audit のような非 SQL ストアでのみ。</t>
+  </si>
+  <si>
+    <t>リッチ テキスト</t>
+  </si>
+  <si>
+    <t>HTML 利幅を含むリッチ テキスト形式を許可します。</t>
+  </si>
+  <si>
+    <t>バージョン番号</t>
+  </si>
+  <si>
+    <t>行のバージョン番号を保存します。</t>
+  </si>
+  <si>
+    <t>無効</t>
+  </si>
+  <si>
+    <t>システムでのみ使用します。</t>
+  </si>
+  <si>
+    <t>複数行テキスト (メモ)</t>
+  </si>
+  <si>
+    <t>テキスト文字を含み、改行を許可するテキスト列。</t>
+  </si>
+  <si>
+    <t>内部使用のみ。</t>
+  </si>
+  <si>
+    <t>いいえ</t>
+  </si>
+  <si>
+    <t>Log のような非 SQL ストアでのみ。</t>
+  </si>
+  <si>
+    <t>Y (API のみ)</t>
+  </si>
+  <si>
+    <t>InternalExtentData</t>
+  </si>
+  <si>
+    <t>システムでのみ使用します</t>
+  </si>
+  <si>
+    <t>なし/string.Empty</t>
+  </si>
+  <si>
+    <t>このオプションでは、単に数字が表示されます。</t>
+  </si>
+  <si>
+    <t>整数列の既定形式値。</t>
+  </si>
+  <si>
+    <t>システムはこの値を秒単位で読み取ります。</t>
+  </si>
+  <si>
+    <t>このオプションは、タイム ゾーン コードを使用してタイム ゾーンの選択リストを表示します。 これらのゾーンのそれぞれは数値として保存されます。 たとえば、タイム ゾーン (GMT-08:00) 太平洋標準時 (米国およびカナダ)では、TimeZoneCode は 4 です。 これらのコードを、モデル駆動型アプリはタイム ゾーン名で表示し、キャンバス アプリは格納されている番号で表示します。</t>
+  </si>
+  <si>
+    <t>このオプションは、組織でプロビジョニングされた言語の一覧を表示します。 値は LCID コードを使用して数値として格納します。 言語コードは 4 桁または 5 桁のロケール ID です。 有効なロケール ID 値は、ロケール ID (LCID) の一覧で確認できます。 言語を、モデル駆動型アプリは言語名で表示し、キャンバス アプリは格納されている番号で表示します。</t>
+  </si>
+  <si>
+    <t>ロケール</t>
+  </si>
+  <si>
+    <t>ISO 標準値を使用して特定のロケールに対応する値。</t>
+  </si>
+  <si>
+    <t>Power Apps メーカー UI に表示されていません。</t>
+  </si>
+  <si>
+    <t>日付と時刻の形式。</t>
+  </si>
+  <si>
+    <t>DateTime 列の既定形式値。</t>
+  </si>
+  <si>
+    <t>日付のみ。 ユーザー ローカル または タイム ゾーン非依存 が選択されている場合は、00:00:00 (時間) を含みます。</t>
+  </si>
+  <si>
+    <t>この形式オプションは期間オプションの一覧を表示します。 データベースに保存されるデータは、常に分の数です。 フィールドはドロップダウン リストとして表示され、1 分、15 分、30 分、さらには 3 日などの候補のオプションを提供します。 ユーザーがこれらのオプションを選択するか、または分の数を入力すると、その期間に対して解決できます。 たとえば、60 を入力する場合は、1 時間に解決されます。 または、"1 時間" または "2 日" と入力するだけで、その時間を表示するよう解決されます。
+期間は "x 分"、"x 時間"、および "x 日" の形式で入力する必要があります。 時間と日は、小数点使用して入力できます。たとえば、"x.x 時間" または "x.x 日" と入力することができます。
+注意: 値は分単位で表現可能でなければならず、分未満の値は、最も近い分に丸められます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Format name</t>
+  </si>
+  <si>
+    <t>Available to app maker?</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Basic text column that contains text characters.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Default format value for the text column.</t>
+  </si>
+  <si>
+    <t>Text column that contains text characters and also allows line breaks.</t>
+  </si>
+  <si>
+    <t>The text provides a link to open the user's email application.</t>
+  </si>
+  <si>
+    <t>The text provides a hyperlink to open the page specified. Any text that does not begin with a valid protocol will have "https://" prepended to it.</t>
+  </si>
+  <si>
+    <t>For most languages, the text will be enabled as a link to open the MSN Money website to show details about the stock price represented by the ticker symbol.</t>
+  </si>
+  <si>
+    <t>Columns will be click-enabled to initiate calls.</t>
+  </si>
+  <si>
+    <t>Stores text using JSON formatting</t>
+  </si>
+  <si>
+    <t>Yes (API only)</t>
+  </si>
+  <si>
+    <t>Only in non-SQL stores like Audit.</t>
+  </si>
+  <si>
+    <t>Rich Text</t>
+  </si>
+  <si>
+    <t>Allows rich text formatting, including HTML markup.</t>
+  </si>
+  <si>
+    <t>Version Number</t>
+  </si>
+  <si>
+    <t>Stores the version number for rows.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>System use only.</t>
+  </si>
+  <si>
+    <t>Multiline Text (Memo)</t>
+  </si>
+  <si>
+    <t>Text column contains text characters and allows line breaks.</t>
+  </si>
+  <si>
+    <t>For internal use only.</t>
+  </si>
+  <si>
+    <t>Yes (API Only)</t>
+  </si>
+  <si>
+    <t>Only in non-SQL stores like Log.</t>
+  </si>
+  <si>
+    <t>RichText</t>
+  </si>
+  <si>
+    <t>Allows for rich text formatting, including HTML markup.</t>
+  </si>
+  <si>
+    <t>Y (API Only)</t>
+  </si>
+  <si>
+    <t>System use only</t>
+  </si>
+  <si>
+    <t>None/string.Empty</t>
+  </si>
+  <si>
+    <t>This option simply displays a number.</t>
+  </si>
+  <si>
+    <t>Default format value for whole number column.</t>
+  </si>
+  <si>
+    <t>System reads this value in seconds.</t>
+  </si>
+  <si>
+    <t>This option displays a select list of time zones using Time Zone Codes. Each of these zones is stored as a number. For example, for the time zone (GMT-08:00) Pacific Time (US &amp; Canada), the TimeZoneCode is 4. Model driven apps display these codes into time zone names, Canvas apps will display as the number stored.</t>
+  </si>
+  <si>
+    <t>This option displays a list of the languages provisioned for your organization. The values are stored as a number using LCID codes. Language codes are four-digit or five-digit locale IDs. Valid locale ID values can be found at Locale ID (LCID) Chart). Model driven apps will display the languages as the language name, Canvas apps will display as the number stored.</t>
+  </si>
+  <si>
+    <t>Locale</t>
+  </si>
+  <si>
+    <t>Value that corresponds to a specific locale using ISO standard values.</t>
+  </si>
+  <si>
+    <t>Not shown in Power Apps Maker UI.</t>
+  </si>
+  <si>
+    <t>Date only. Includes a time of 00:00:00 if the User Local or Time-Zone Independent is selected.</t>
+  </si>
+  <si>
+    <t>Date and time format.</t>
+  </si>
+  <si>
+    <t>Default format value for DateTime column.</t>
+  </si>
+  <si>
+    <t>This format option displays a list of duration options. The data stored in the database is always a number of minutes. The field looks like a drop-down list and provides suggested options like 1 minute, 15 minutes, 30 minutes all the way up to 3 days. People can choose these options or type in a number of minutes and it resolves to that period of time. For example, type in 60 and it resolves to 1 hour. Or they can enter "1 hour" or "2 days" and it will resolve to display that time.
+The duration must be entered in the following format: "x minutes", "x hours" or "x days". Hours and days can also be entered using decimals, for example, "x.x hours" or "x.x days".
+NOTE: Values must be expressible in minutes, sub-minute values will be rounded to the nearest minute.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -579,31 +857,10 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="25">
     <dxf>
       <font>
         <b/>
-        <family val="3"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="3"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <family val="3"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -636,6 +893,71 @@
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="3"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="3"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <family val="3"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="3"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -650,28 +972,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BFCECC70-B5F4-45FD-9D44-E5507BE93F3C}" name="テーブル2" displayName="テーブル2" ref="A2:F30" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BFCECC70-B5F4-45FD-9D44-E5507BE93F3C}" name="テーブル2" displayName="テーブル2" ref="A2:F30" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A2:F30" xr:uid="{BFCECC70-B5F4-45FD-9D44-E5507BE93F3C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{656AC536-1A33-4321-911B-81FBE1DBBF5B}" name="Power Apps データ型" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{6F94CE74-E864-40AD-A8D1-E94CC0C571D4}" name="ソリューション エクスプローラーの種類" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{36A17F82-6098-4DB0-9ECD-4466BE10B386}" name="API の種類" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{9A4AD4E9-E2E9-4934-A2B3-944D0E0D0375}" name="Power Apps data type" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{CC4D040C-58EF-4713-949B-24B6C9217C57}" name="Solution Explorer type" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{ABBBA410-EF51-45DD-968D-764D04951B2F}" name="API type" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{656AC536-1A33-4321-911B-81FBE1DBBF5B}" name="Power Apps データ型" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{6F94CE74-E864-40AD-A8D1-E94CC0C571D4}" name="ソリューション エクスプローラーの種類" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{36A17F82-6098-4DB0-9ECD-4466BE10B386}" name="API の種類" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{9A4AD4E9-E2E9-4934-A2B3-944D0E0D0375}" name="Power Apps data type" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{CC4D040C-58EF-4713-949B-24B6C9217C57}" name="Solution Explorer type" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{ABBBA410-EF51-45DD-968D-764D04951B2F}" name="API type" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD8DBCA8-0618-4528-B91D-8606F4EF67FC}" name="テーブル1" displayName="テーブル1" ref="A2:D8" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD8DBCA8-0618-4528-B91D-8606F4EF67FC}" name="テーブル1" displayName="テーブル1" ref="A2:D8" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A2:D8" xr:uid="{BD8DBCA8-0618-4528-B91D-8606F4EF67FC}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E7592BF3-CA53-462A-B48C-810BC73F583F}" name="タイプ" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{5ABBA97D-7223-4615-B92E-631440F88E88}" name="Description" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{6984B185-D338-47A7-9696-B1E37EC8B36E}" name="Type" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{6BD14068-E7C1-4AEF-AC64-27B24D1DC2C4}" name="Description2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E7592BF3-CA53-462A-B48C-810BC73F583F}" name="タイプ" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{5ABBA97D-7223-4615-B92E-631440F88E88}" name="Description" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{6984B185-D338-47A7-9696-B1E37EC8B36E}" name="Type" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{6BD14068-E7C1-4AEF-AC64-27B24D1DC2C4}" name="Description2" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{842FA924-A20F-4B9D-B1F1-CE721D58AEEF}" name="テーブル3" displayName="テーブル3" ref="A2:J24" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+  <autoFilter ref="A2:J24" xr:uid="{842FA924-A20F-4B9D-B1F1-CE721D58AEEF}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{F5865E30-E9A4-42C3-9FDA-A4B31FB62038}" name="データの種類" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{1C99BD36-001E-4D84-B9A1-1A154C361C97}" name="形式名" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{DC67E257-F699-44F4-BEE5-B9D4EE686625}" name="説明" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{847FB959-6110-405B-A598-3DDDE9918922}" name="アプリ開発者は利用できますか" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{66491E03-F9DB-4CF4-B88D-85D206F10511}" name="メモ" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{D514B3A2-090C-49C5-BB86-B2298EF6A023}" name="Data Type" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{E900E1F5-C404-46ED-B959-117B9F99E084}" name="Format name" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{D477B567-E4DE-4A9C-A054-5D1DCDFE670C}" name="Description" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{E788F870-EDD0-49B4-B36D-DF5CC0975474}" name="Available to app maker?" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{2AA1944D-161D-405A-9D66-68CDA8C7DF6F}" name="Notes" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -976,13 +1317,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973D9B78-BDD9-4AE9-A125-188A295A4DAF}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20.19921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.296875" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.8984375" style="2" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="20.8984375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.8984375" style="2" bestFit="1" customWidth="1"/>
@@ -1716,4 +2057,592 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6F3353-FB8C-4326-BC17-322D71C08454}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="43" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.45">
+      <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="36" x14ac:dyDescent="0.45">
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B15" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B16" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B17" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B18" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="36" x14ac:dyDescent="0.45">
+      <c r="B22" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{9809E954-0611-415B-BF07-125E14E04479}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>